--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2996153.297843351</v>
+        <v>2992140.687829359</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.105228318</v>
+        <v>416855.1052283187</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>4.792004777349866</v>
       </c>
       <c r="C2" t="n">
-        <v>334.3847524867062</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>406.8760457417114</v>
@@ -676,7 +676,7 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>41.57692977292595</v>
@@ -709,16 +709,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -819,25 +819,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,19 +864,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="V4" t="n">
-        <v>50.71093418697637</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>351.8998908890609</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,7 +904,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>111.4702381038696</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>406.8760457417114</v>
@@ -913,10 +913,10 @@
         <v>410.9217256534534</v>
       </c>
       <c r="H5" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292601</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,16 +946,16 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>109.1877617881759</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
         <v>349.240968717413</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247746</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098773</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1053,10 +1053,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1065,16 +1065,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>50.52231406063321</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,13 +1101,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004733</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>192.1675620474791</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1116,10 +1116,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -1135,7 +1135,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1147,10 +1147,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>410.9217256534534</v>
+        <v>47.87730750143915</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>41.57692977292595</v>
@@ -1192,13 +1192,13 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>23.79925355567503</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1290,28 +1290,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>62.36028435985595</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1341,16 +1341,16 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>157.7822070347172</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1372,7 +1372,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710077</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1420,16 +1420,16 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576185</v>
+        <v>199.0222304576155</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.752258470135</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>147.6895341487373</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>87.21471514852939</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174149</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>155.1980648094037</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,10 +1776,10 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
@@ -1812,7 +1812,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1824,7 +1824,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>106.5290632934499</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1855,7 +1855,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F17" t="n">
-        <v>406.8760457417126</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
         <v>409.8033385187866</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.731100678469</v>
+        <v>369.7311006784686</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,10 +2007,10 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428253</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012164</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>65.99480013030511</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2095,7 +2095,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G20" t="n">
-        <v>409.8033385187887</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H20" t="n">
         <v>283.1540821444137</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695526</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2241,7 +2241,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
-        <v>28.75188085812118</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673018</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2475,7 +2475,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
@@ -2484,7 +2484,7 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
@@ -2493,7 +2493,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>116.4636264596511</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012163</v>
+        <v>9.146142788179482</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2718,22 +2718,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H28" t="n">
-        <v>26.13627195705873</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,13 +2760,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T28" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
         <v>286.1844743892441</v>
@@ -2803,7 +2803,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417118</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.702514956955</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2952,25 +2952,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>101.9154861872842</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3034,7 +3034,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D32" t="n">
-        <v>354.6830416206834</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E32" t="n">
         <v>381.9303700722618</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3195,19 +3195,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,10 +3234,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
-        <v>55.52079624060465</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
         <v>217.4054503272883</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>251.5502284016991</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3283,7 +3283,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0.4774956074566125</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3708,7 +3708,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3717,13 +3717,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>215.3025979624047</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W40" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X40" t="n">
         <v>225.7096553890372</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3900,7 +3900,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3909,16 +3909,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>51.3656974031032</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>116.632033812896</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -4027,7 +4027,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4140,22 +4140,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>137.3676443337302</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,19 +4182,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>108.9065924712593</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4306,22 +4306,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1955.701599376001</v>
+        <v>1303.529887077737</v>
       </c>
       <c r="C2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="D2" t="n">
-        <v>1617.939223126803</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="E2" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F2" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
         <v>108.5090151927147</v>
@@ -4333,7 +4333,7 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L2" t="n">
         <v>1040.244834329464</v>
@@ -4357,25 +4357,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>3072.075344883007</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2719.306689612893</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X2" t="n">
-        <v>2345.840931351813</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y2" t="n">
-        <v>1955.701599376001</v>
+        <v>1308.370295943747</v>
       </c>
     </row>
     <row r="3">
@@ -4400,13 +4400,13 @@
         <v>312.3844025601604</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927783</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064583</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
@@ -4464,25 +4464,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>163.8377936138381</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C4" t="n">
-        <v>163.8377936138381</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D4" t="n">
-        <v>163.8377936138381</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E4" t="n">
-        <v>163.8377936138381</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F4" t="n">
-        <v>163.8377936138381</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H4" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I4" t="n">
         <v>66.51211643218342</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S4" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T4" t="n">
-        <v>1424.011591242373</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U4" t="n">
-        <v>1134.908724368016</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="V4" t="n">
-        <v>1083.685558522586</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W4" t="n">
-        <v>794.2683884856252</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X4" t="n">
-        <v>566.2788375876079</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y4" t="n">
-        <v>345.4862584440777</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="5">
@@ -4543,34 +4543,34 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>2071.975386180639</v>
+        <v>2047.583838282732</v>
       </c>
       <c r="C5" t="n">
-        <v>1703.012869240228</v>
+        <v>1678.62132134232</v>
       </c>
       <c r="D5" t="n">
-        <v>1344.747170633477</v>
+        <v>1320.35562273557</v>
       </c>
       <c r="E5" t="n">
-        <v>1232.150970528558</v>
+        <v>934.5673701373257</v>
       </c>
       <c r="F5" t="n">
-        <v>821.1650657389509</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G5" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H5" t="n">
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810549</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939507</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052366</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.605821609169</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136266</v>
+        <v>3215.315153136264</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520486</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="V5" t="n">
-        <v>2424.744041450754</v>
+        <v>2755.806928794322</v>
       </c>
       <c r="W5" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524208</v>
       </c>
       <c r="X5" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524208</v>
       </c>
       <c r="Y5" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524208</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811077</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999807</v>
       </c>
       <c r="D6" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387296</v>
       </c>
       <c r="E6" t="n">
-        <v>458.9189605332745</v>
+        <v>458.918960533274</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601591</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064537</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218336</v>
       </c>
       <c r="J6" t="n">
-        <v>160.189385922801</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031477</v>
       </c>
       <c r="L6" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4676,16 +4676,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X6" t="n">
         <v>1317.51949026613</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>659.1173538559952</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C7" t="n">
-        <v>659.1173538559952</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D7" t="n">
-        <v>509.0007144436595</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E7" t="n">
-        <v>361.0876208612664</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F7" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574644</v>
       </c>
       <c r="G7" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218338</v>
       </c>
       <c r="J7" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764914</v>
+        <v>632.1817302764912</v>
       </c>
       <c r="M7" t="n">
-        <v>976.3387758760405</v>
+        <v>976.33877587604</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502319</v>
+        <v>1617.076751502318</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935978</v>
+        <v>1849.684251935977</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R7" t="n">
-        <v>1837.464090846021</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S7" t="n">
-        <v>1645.778206672847</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T7" t="n">
-        <v>1424.011591242373</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="U7" t="n">
-        <v>1424.011591242373</v>
+        <v>1733.185899555685</v>
       </c>
       <c r="V7" t="n">
-        <v>1169.327103036486</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="W7" t="n">
-        <v>879.9099329995254</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X7" t="n">
-        <v>879.9099329995254</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y7" t="n">
-        <v>659.1173538559952</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="8">
@@ -4780,22 +4780,22 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2345.167438673965</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="C8" t="n">
-        <v>1976.204921733553</v>
+        <v>1311.909787855437</v>
       </c>
       <c r="D8" t="n">
-        <v>1617.939223126803</v>
+        <v>953.6440892486869</v>
       </c>
       <c r="E8" t="n">
-        <v>1232.150970528558</v>
+        <v>567.8558366504426</v>
       </c>
       <c r="F8" t="n">
-        <v>821.1650657389509</v>
+        <v>156.869931860835</v>
       </c>
       <c r="G8" t="n">
-        <v>406.0926155839475</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L8" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4840,16 +4840,16 @@
         <v>2755.806928794324</v>
       </c>
       <c r="V8" t="n">
-        <v>2755.806928794324</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W8" t="n">
-        <v>2731.767278738087</v>
+        <v>2071.975386180639</v>
       </c>
       <c r="X8" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919559</v>
       </c>
       <c r="Y8" t="n">
-        <v>2731.767278738087</v>
+        <v>1698.509627919559</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D9" t="n">
-        <v>618.1564155387309</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601604</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G9" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064547</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228006</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031475</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158137</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M9" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886742</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q9" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125857</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619337</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T9" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V9" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W9" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="10">
@@ -4938,25 +4938,25 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>457.9680739783734</v>
+        <v>848.0708164780106</v>
       </c>
       <c r="C10" t="n">
-        <v>457.9680739783734</v>
+        <v>679.1346335501037</v>
       </c>
       <c r="D10" t="n">
-        <v>457.9680739783734</v>
+        <v>529.0179941377679</v>
       </c>
       <c r="E10" t="n">
-        <v>310.0549803959803</v>
+        <v>381.1049005553748</v>
       </c>
       <c r="F10" t="n">
-        <v>310.0549803959803</v>
+        <v>234.2149530574645</v>
       </c>
       <c r="G10" t="n">
-        <v>310.0549803959803</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H10" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I10" t="n">
         <v>66.51211643218342</v>
@@ -4989,25 +4989,25 @@
         <v>1927.294548088493</v>
       </c>
       <c r="S10" t="n">
-        <v>1735.608663915319</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="U10" t="n">
-        <v>1513.842048484845</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="V10" t="n">
-        <v>1259.157560278958</v>
+        <v>1767.918581386758</v>
       </c>
       <c r="W10" t="n">
-        <v>969.7403902419976</v>
+        <v>1478.501411349798</v>
       </c>
       <c r="X10" t="n">
-        <v>741.7508393439803</v>
+        <v>1250.51186045178</v>
       </c>
       <c r="Y10" t="n">
-        <v>520.9582602004501</v>
+        <v>1029.71928130825</v>
       </c>
     </row>
     <row r="11">
@@ -5020,7 +5020,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
         <v>1590.547811004713</v>
@@ -5029,46 +5029,46 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
         <v>4405.252601474785</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,34 +5114,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273912</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J12" t="n">
-        <v>95.58405025273912</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>372.4964262156755</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>867.8220324314344</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>1465.200520057987</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>2092.798483612593</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>2092.798483612593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5196,49 +5196,49 @@
         <v>175.9033664000583</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1828.279732885522</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1573.595244679635</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1284.178074642674</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
         <v>1056.188523744657</v>
@@ -5257,7 +5257,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5266,22 +5266,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332388</v>
@@ -5293,34 +5293,34 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,34 +5351,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>738.7889117913855</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1336.167399417938</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>1963.765362972545</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
-        <v>2515.675093211832</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>538.7363435406112</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>538.7363435406112</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>388.6197041282754</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>240.7066105458823</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>93.81666304797193</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.70136564882</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W16" t="n">
-        <v>1144.284195611859</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5491,76 +5491,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192611</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y17" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="18">
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,31 +5588,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797191</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797191</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797191</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>589.1422692637308</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1186.520756890283</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951537</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190824</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400721</v>
+        <v>951.777212765616</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121652</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121652</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121652</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270452</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797191</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797191</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832664</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2380.301669307225</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>2160.700204330166</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1871.624977674364</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1582.207807637403</v>
       </c>
       <c r="X19" t="n">
-        <v>916.294644713842</v>
+        <v>1354.218256739386</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703119</v>
+        <v>1133.425677595856</v>
       </c>
     </row>
     <row r="20">
@@ -5728,76 +5728,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>2317.776026551877</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C20" t="n">
-        <v>1948.813509611466</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D20" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E20" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168634</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068012</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.41387069471</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T20" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U20" t="n">
-        <v>4151.812499466576</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123005</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852891</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591811</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
-        <v>2704.375866615999</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="21">
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,34 +5825,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756267</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>243.4633055756267</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>680.0291294438167</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438167</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2757.723669558407</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>2728.681365661315</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>2728.681365661315</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>2728.681365661315</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>2728.681365661315</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>2561.485266376195</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>2419.773435218393</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
-        <v>2337.686731866307</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>2417.922750296631</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>2679.61201282217</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>3070.01060699811</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
-        <v>3492.020309729145</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>3909.430181389153</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>4278.959462098138</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
-        <v>4571.634917671697</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>4690.833152398596</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>4623.787448650998</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>4440.932614305902</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>4221.331149328844</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U22" t="n">
-        <v>3932.255922673042</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>3677.571434467155</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>3388.154264430194</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>3160.164713532177</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>2939.372134388647</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5965,76 +5965,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406471</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168629</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362692</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192514</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.192580311171</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075806</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852257</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398595</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.28515749258</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,28 +6062,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797193</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797193</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>93.81666304797193</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>352.5519571452597</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>949.9304447718121</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1577.528408326419</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>695.5020655703123</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C25" t="n">
-        <v>526.5658826424054</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D25" t="n">
-        <v>526.5658826424054</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E25" t="n">
-        <v>378.6527890600123</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F25" t="n">
-        <v>378.6527890600123</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G25" t="n">
-        <v>211.4566897748923</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782959</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038346</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797749</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279804</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580262</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832664</v>
+        <v>2437.724555511392</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487569</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.46108051051</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.28419561186</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138424</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703123</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="26">
@@ -6217,16 +6217,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192596</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
@@ -6244,10 +6244,10 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
@@ -6262,13 +6262,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y26" t="n">
         <v>2704.375866615997</v>
@@ -6302,31 +6302,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,76 +6360,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>983.3556038098242</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>814.4194208819173</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D28" t="n">
-        <v>664.3027814695815</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E28" t="n">
-        <v>516.3896878871884</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F28" t="n">
-        <v>369.499740389278</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G28" t="n">
-        <v>202.303641104158</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2446.963083580261</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2446.963083580261</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>2157.887856924459</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1903.203368718572</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1613.786198681611</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>1385.796647783594</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>1165.004068640064</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6442,7 +6442,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004713</v>
@@ -6457,13 +6457,13 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075809</v>
@@ -6481,31 +6481,31 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6518,76 +6518,76 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>3081.170977615667</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C30" t="n">
-        <v>2906.71794833454</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D30" t="n">
-        <v>2757.783538673289</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>2598.546083667833</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
-        <v>2452.011525694718</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G30" t="n">
-        <v>2316.252859740626</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>2231.588527385792</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>2231.588527385792</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>2381.235169913447</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>2381.235169913447</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>2381.235169913447</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>2854.44064873475</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>3482.038612289356</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
-        <v>4033.948342528643</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>4457.571492023711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
-        <v>4690.833152398594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S30" t="n">
-        <v>4572.622366301207</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T30" t="n">
-        <v>4382.415660022981</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U30" t="n">
-        <v>4154.387578566166</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V30" t="n">
-        <v>3919.235470334423</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W30" t="n">
-        <v>3664.998113606222</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X30" t="n">
-        <v>3457.146613400689</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y30" t="n">
-        <v>3249.386314635735</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="31">
@@ -6597,76 +6597,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>734.6461798836018</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>734.6461798836018</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>734.6461798836018</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408905</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429802</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578601</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>916.2946447138415</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6676,76 +6676,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192602</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K32" t="n">
-        <v>852.852361107581</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6764,7 +6764,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E33" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F33" t="n">
         <v>314.2396613568978</v>
@@ -6773,28 +6773,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>243.4633055756266</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>738.7889117913853</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1336.167399417937</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1963.765362972544</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>2515.675093211831</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
         <v>2553.061288060775</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>707.672526468518</v>
+        <v>803.8641191832229</v>
       </c>
       <c r="C34" t="n">
-        <v>538.7363435406111</v>
+        <v>634.927936255316</v>
       </c>
       <c r="D34" t="n">
-        <v>388.6197041282754</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="E34" t="n">
-        <v>240.7066105458823</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F34" t="n">
-        <v>93.81666304797189</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797189</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2390.881471216014</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2171.280006238955</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1882.204779583153</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1627.520291377266</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="W34" t="n">
-        <v>1338.103121340305</v>
+        <v>1434.29471405501</v>
       </c>
       <c r="X34" t="n">
-        <v>1110.113570442288</v>
+        <v>1206.305163156993</v>
       </c>
       <c r="Y34" t="n">
-        <v>889.3209912987577</v>
+        <v>985.5125840134626</v>
       </c>
     </row>
     <row r="35">
@@ -6919,34 +6919,34 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192548</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111708</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355937</v>
@@ -7013,31 +7013,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2379.435061037252</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>2159.833596060193</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1870.758369404391</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1616.073881198505</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1326.656711161544</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>1098.667160263527</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,19 +7162,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7186,10 +7186,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="39">
@@ -7250,31 +7250,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>874.8686257536381</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D40" t="n">
-        <v>555.8158034133954</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E40" t="n">
-        <v>407.9027098310023</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F40" t="n">
-        <v>261.0127623330919</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G40" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1759.983708831312</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1505.299220625425</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1505.299220625425</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>1277.309669727408</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>1056.517090583878</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7387,46 +7387,46 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7444,19 +7444,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C42" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D42" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E42" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F42" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G42" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>2231.588527385791</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>2381.235169913446</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>2381.235169913446</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>2381.235169913446</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>2978.613657539998</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>3606.211621094605</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>4158.121351333892</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>4581.74450082896</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S42" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T42" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U42" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V42" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W42" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X42" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y42" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="43">
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>615.644930552589</v>
+        <v>983.3556038098237</v>
       </c>
       <c r="C43" t="n">
-        <v>615.644930552589</v>
+        <v>814.4194208819168</v>
       </c>
       <c r="D43" t="n">
-        <v>465.5282911402533</v>
+        <v>664.3027814695811</v>
       </c>
       <c r="E43" t="n">
-        <v>317.6151975578601</v>
+        <v>516.389687887188</v>
       </c>
       <c r="F43" t="n">
-        <v>317.6151975578601</v>
+        <v>369.4997403892776</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578601</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000582</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T43" t="n">
-        <v>2079.252410323026</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U43" t="n">
-        <v>1790.177183667224</v>
+        <v>2157.887856924458</v>
       </c>
       <c r="V43" t="n">
-        <v>1535.492695461337</v>
+        <v>1903.203368718571</v>
       </c>
       <c r="W43" t="n">
-        <v>1246.075525424376</v>
+        <v>1613.786198681611</v>
       </c>
       <c r="X43" t="n">
-        <v>1018.085974526359</v>
+        <v>1385.796647783593</v>
       </c>
       <c r="Y43" t="n">
-        <v>797.2933953828287</v>
+        <v>1165.004068640063</v>
       </c>
     </row>
     <row r="44">
@@ -7636,22 +7636,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332387</v>
@@ -7660,10 +7660,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7684,13 +7684,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
         <v>2704.375866615997</v>
@@ -7724,22 +7724,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>245.2306927803938</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>739.5354516872161</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1336.913939313768</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1964.511902868375</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
         <v>2516.421633107662</v>
@@ -7782,76 +7782,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>653.7474797708871</v>
+        <v>988.1395539230172</v>
       </c>
       <c r="C46" t="n">
-        <v>484.8112968429802</v>
+        <v>819.2033709951103</v>
       </c>
       <c r="D46" t="n">
-        <v>484.8112968429802</v>
+        <v>669.0867315827745</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429802</v>
+        <v>521.1736380003814</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429802</v>
+        <v>374.283690502471</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2446.963083580261</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2336.956424518383</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2117.354959541324</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U46" t="n">
-        <v>1828.279732885522</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V46" t="n">
-        <v>1573.595244679635</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="W46" t="n">
-        <v>1284.178074642674</v>
+        <v>1618.570148794804</v>
       </c>
       <c r="X46" t="n">
-        <v>1056.188523744657</v>
+        <v>1390.580597896787</v>
       </c>
       <c r="Y46" t="n">
-        <v>835.3959446011269</v>
+        <v>1169.788018753257</v>
       </c>
     </row>
   </sheetData>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>138.4949402405068</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>24.63391537253364</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,16 +23664,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,7 +23700,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23712,7 +23712,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>145.6085800303781</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,10 +23895,10 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194133</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>115.0314858713395</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24129,7 +24129,7 @@
         <v>0</v>
       </c>
       <c r="C22" t="n">
-        <v>138.4949402405067</v>
+        <v>0</v>
       </c>
       <c r="D22" t="n">
         <v>148.6154730182124</v>
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>57.22910392194231</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24363,7 +24363,7 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
@@ -24372,7 +24372,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
@@ -24381,10 +24381,10 @@
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>23.83108638657275</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>57.2291039219422</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24606,22 +24606,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H28" t="n">
-        <v>114.1584408891651</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,13 +24648,13 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U28" t="n">
         <v>0</v>
@@ -24840,25 +24840,25 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>44.51847645928501</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25083,19 +25083,19 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,10 +25122,10 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>125.5054897610399</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>0.5874149221289144</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>180.548790394188</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -25554,22 +25554,22 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25605,13 +25605,13 @@
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>70.8818764268394</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
         <v>0</v>
@@ -25788,7 +25788,7 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25797,10 +25797,10 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,13 +25833,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>100.7734165143923</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -26028,22 +26028,22 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>28.15649395853862</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26070,19 +26070,19 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>72.11969353038532</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="9">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="15">
@@ -26313,28 +26313,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846407</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846411</v>
       </c>
       <c r="D2" t="n">
         <v>697885.5043846408</v>
       </c>
       <c r="E2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
-      <c r="F2" t="n">
-        <v>686074.6097365055</v>
-      </c>
       <c r="G2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365058</v>
+        <v>686074.6097365057</v>
       </c>
       <c r="J2" t="n">
         <v>686074.6097365057</v>
@@ -26343,19 +26343,19 @@
         <v>686074.6097365057</v>
       </c>
       <c r="L2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="M2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="N2" t="n">
+        <v>686074.6097365057</v>
+      </c>
+      <c r="O2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="P2" t="n">
         <v>686074.6097365058</v>
-      </c>
-      <c r="M2" t="n">
-        <v>686074.6097365057</v>
-      </c>
-      <c r="N2" t="n">
-        <v>686074.6097365059</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365058</v>
-      </c>
-      <c r="P2" t="n">
-        <v>686074.609736506</v>
       </c>
     </row>
     <row r="3">
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>5.307101673679426e-10</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073556</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,16 +26389,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972769</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>1.150924617832061e-10</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551193</v>
+        <v>85055.02793551184</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,25 +26417,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="C4" t="n">
-        <v>90964.0109881571</v>
+        <v>90964.01098815721</v>
       </c>
       <c r="D4" t="n">
-        <v>90964.01098815711</v>
+        <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.9762168057</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="F4" t="n">
-        <v>11776.97621680573</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="G4" t="n">
-        <v>11776.97621680577</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680573</v>
+        <v>11776.97621680582</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26490,7 +26490,7 @@
         <v>101122.5298239071</v>
       </c>
       <c r="I5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="J5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829757.1928925022</v>
+        <v>-829757.1928925023</v>
       </c>
       <c r="C6" t="n">
-        <v>498987.5528350904</v>
+        <v>498987.5528350911</v>
       </c>
       <c r="D6" t="n">
-        <v>498987.5528350904</v>
+        <v>498987.5528350899</v>
       </c>
       <c r="E6" t="n">
-        <v>247762.6418884372</v>
+        <v>247415.2626340805</v>
       </c>
       <c r="F6" t="n">
-        <v>573175.1036957926</v>
+        <v>572827.7244414358</v>
       </c>
       <c r="G6" t="n">
-        <v>573175.1036957926</v>
+        <v>572827.724441436</v>
       </c>
       <c r="H6" t="n">
-        <v>573175.103695793</v>
+        <v>572827.7244414358</v>
       </c>
       <c r="I6" t="n">
-        <v>573175.1036957927</v>
+        <v>572827.7244414358</v>
       </c>
       <c r="J6" t="n">
-        <v>355643.9012985158</v>
+        <v>355296.5220441583</v>
       </c>
       <c r="K6" t="n">
-        <v>573175.1036957926</v>
+        <v>572827.7244414359</v>
       </c>
       <c r="L6" t="n">
-        <v>573175.1036957928</v>
+        <v>572827.7244414355</v>
       </c>
       <c r="M6" t="n">
-        <v>488120.0757602808</v>
+        <v>487772.6965059238</v>
       </c>
       <c r="N6" t="n">
-        <v>573175.103695793</v>
+        <v>572827.7244414358</v>
       </c>
       <c r="O6" t="n">
-        <v>573175.1036957928</v>
+        <v>572827.7244414357</v>
       </c>
       <c r="P6" t="n">
-        <v>573175.1036957931</v>
+        <v>572827.7244414359</v>
       </c>
     </row>
   </sheetData>
@@ -26792,34 +26792,34 @@
         <v>831.4014554022926</v>
       </c>
       <c r="C4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022928</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483759</v>
+        <v>278.1987997483754</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27017,10 +27017,10 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,16 +27035,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.401455402292</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973561</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27263,10 +27263,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973563</v>
+        <v>341.3068326973557</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>377.9418368861307</v>
       </c>
       <c r="C2" t="n">
-        <v>30.8881392843013</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
@@ -27396,7 +27396,7 @@
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -27429,16 +27429,16 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27539,25 +27539,25 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
       </c>
       <c r="I4" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27584,19 +27584,19 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>128.4296311708957</v>
       </c>
       <c r="V4" t="n">
-        <v>201.4267091368516</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>30.83395077441963</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,7 +27624,7 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>270.4601319683921</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27633,7 +27633,7 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27675,7 +27675,7 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
         <v>0</v>
@@ -27773,10 +27773,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27785,16 +27785,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>94.89873396229802</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>88.93215267004737</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>27.38138722869013</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27836,10 +27836,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -27855,7 +27855,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27867,10 +27867,10 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>363.0444181520143</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -27912,13 +27912,13 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>325.441715161738</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -28010,28 +28010,28 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>117.4716958220814</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28061,16 +28061,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>94.3554362891108</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28143,13 +28143,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-2.192117934922316e-12</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>-9.751586511466202e-14</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -28389,7 +28389,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>-1.591341801100328e-12</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -28575,7 +28575,7 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>-8.523773559098237e-13</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681596</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844665</v>
       </c>
       <c r="I5" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953988</v>
+        <v>371.8329054953987</v>
       </c>
       <c r="K5" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003808</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623191</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574991</v>
       </c>
       <c r="N5" t="n">
-        <v>781.7148990095023</v>
+        <v>781.714899009502</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099056</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746411</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781688</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806946</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345277</v>
+        <v>0.3504809489345276</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502566</v>
+        <v>2.344047997502565</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752254</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353155</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138794</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233473</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837921</v>
       </c>
       <c r="O6" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970248</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002925</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898494</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J7" t="n">
-        <v>138.937596729739</v>
+        <v>138.9375967297389</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702024</v>
+        <v>228.3171513702023</v>
       </c>
       <c r="L7" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316432</v>
+        <v>308.0495024316431</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802169</v>
+        <v>237.6785118802168</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712211</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112292</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31752,49 +31752,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31831,49 +31831,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>417.5509096439917</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>142.5962444444444</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31910,49 +31910,49 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,49 +31989,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32068,49 +32068,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
-        <v>134.7284881171886</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32147,49 +32147,49 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,49 +32226,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32305,49 +32305,49 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>290.6810969936909</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32384,49 +32384,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P19" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,49 +32463,49 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I20" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J20" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162564</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
       </c>
       <c r="U20" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -32542,49 +32542,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>579.5299594447126</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437245</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.87657862147</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32621,49 +32621,49 @@
         <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P22" t="n">
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,49 +32700,49 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348436</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
-        <v>56.32071997135343</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I23" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J23" t="n">
-        <v>466.7546155663285</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817579</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162565</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M23" t="n">
-        <v>965.646344017568</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159431</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460033</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236512</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
-        <v>24.07361910651529</v>
+        <v>24.07361910651528</v>
       </c>
       <c r="U23" t="n">
-        <v>0.4399519197078748</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V23" t="n">
         <v>0</v>
@@ -32779,34 +32779,34 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659451</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521102</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>399.9031616963265</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862125</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071789</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437246</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214701</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742441</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32858,49 +32858,49 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588155</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392047</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.493960610679</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P25" t="n">
-        <v>298.3532140417316</v>
+        <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
-        <v>110.9181446670479</v>
+        <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
-        <v>10.54013910099323</v>
+        <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,31 +33016,31 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>363.5371514786841</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33049,16 +33049,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,49 +33253,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>620.1193660647483</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,34 +33490,34 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>171.7382405950817</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,49 +33727,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>431.3680753731354</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,7 +33885,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33897,31 +33897,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236497</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,19 +33976,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -33997,16 +33997,16 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,7 +34122,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34134,31 +34134,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817562</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,49 +34201,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>213.1625787491741</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34359,7 +34359,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34371,31 +34371,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159414</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34438,10 +34438,10 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
         <v>101.3076196007749</v>
@@ -34450,19 +34450,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437244</v>
+        <v>361.7519118779092</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,13 +34474,13 @@
         <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34520,25 +34520,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34547,19 +34547,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687124</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554003</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923318</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302264</v>
       </c>
       <c r="N5" t="n">
-        <v>552.3018354129115</v>
+        <v>552.301835412911</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882191</v>
+        <v>508.0530008882189</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193715</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037193</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222467</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597702</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609565</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340052</v>
       </c>
       <c r="M6" t="n">
-        <v>451.7942679013292</v>
+        <v>451.794267901329</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004589</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525803</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859623</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306622</v>
+        <v>45.57841661306617</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L7" t="n">
-        <v>319.7573721701981</v>
+        <v>319.757372170198</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934838</v>
+        <v>347.6333793934837</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675401</v>
+        <v>344.8569461675399</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451104</v>
+        <v>234.9570711451103</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789357</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,34 +35485,34 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774943</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>279.7094706696327</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>0</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,34 +35722,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
-        <v>0.7540807028583389</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,34 +35880,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902408</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35959,31 +35959,31 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674332</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>159.3393849103576</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367772</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902951</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243163</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,34 +36196,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>440.9755796648384</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992801</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071398</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789216</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317369</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
-        <v>285.7087110396422</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367773</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462692</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902953</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193523</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243165</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902406</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,28 +36433,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>261.3487819164523</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641942</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238456</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992802</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071399</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36515,25 +36515,25 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295347</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191316</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010453</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060456</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
-        <v>295.6317733066251</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q25" t="n">
         <v>120.4022572998984</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,16 +36679,16 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>220.9409070342396</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36697,7 +36697,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,31 +36907,31 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
-        <v>477.98533214273</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,28 +37144,28 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>37.7638331807514</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,25 +37390,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>297.3936679588052</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683802</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,25 +37618,25 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37645,7 +37645,7 @@
         <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,34 +37855,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>73.1808046631526</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38013,34 +38013,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193505</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.48457599928</v>
+        <v>219.1556674334648</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38119,7 +38119,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38174,22 +38174,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_34.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/2000000/Output_18_34.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2992140.687829359</v>
+        <v>2993901.218132144</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283187</v>
+        <v>416855.1052283183</v>
       </c>
     </row>
     <row r="9">
@@ -658,7 +658,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>4.792004777349866</v>
+        <v>332.5442632474858</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -718,7 +718,7 @@
         <v>250.995171958902</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
         <v>349.240968717413</v>
@@ -831,7 +831,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>71.67037196991727</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -873,10 +873,10 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>157.7822070347172</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>351.8998908890609</v>
+        <v>351.8998908890628</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -946,10 +946,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881759</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396202</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
@@ -992,10 +992,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H6" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I6" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S6" t="n">
         <v>128.1435076414547</v>
@@ -1071,7 +1071,7 @@
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1107,7 +1107,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>192.1675620474791</v>
+        <v>47.41254713315928</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1141,19 +1141,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>131.1542332746386</v>
       </c>
       <c r="G8" t="n">
-        <v>47.87730750143915</v>
+        <v>410.9217256534534</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1186,7 +1186,7 @@
         <v>109.1877617881758</v>
       </c>
       <c r="T8" t="n">
-        <v>203.9179701396201</v>
+        <v>203.9179701396202</v>
       </c>
       <c r="U8" t="n">
         <v>250.995171958902</v>
@@ -1229,10 +1229,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H9" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I9" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S9" t="n">
         <v>128.1435076414547</v>
@@ -1350,7 +1350,7 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>157.7822070347172</v>
+        <v>157.7822070347168</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
@@ -1420,10 +1420,10 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695675</v>
       </c>
       <c r="T11" t="n">
-        <v>199.0222304576155</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
         <v>250.9057009881286</v>
@@ -1548,7 +1548,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1584,7 +1584,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>286.1844743892441</v>
+        <v>228.9553704673023</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1593,7 +1593,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>87.21471514852939</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
         <v>218.5846533520948</v>
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1815,16 +1815,16 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>176.1811323375798</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>106.5290632934499</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
@@ -1858,7 +1858,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.803338518787</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1909,7 +1909,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y17" t="n">
         <v>386.2379386560536</v>
@@ -2007,22 +2007,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>27.0291980517616</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,10 +2049,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S19" t="n">
-        <v>65.99480013030511</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2061,7 +2061,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
         <v>286.522998336591</v>
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695619</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,7 +2256,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428212</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2286,7 +2286,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2295,7 +2295,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2478,7 +2478,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812055</v>
       </c>
       <c r="D25" t="n">
         <v>0</v>
@@ -2496,7 +2496,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2523,7 +2523,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2608,7 +2608,7 @@
         <v>83.70251495695528</v>
       </c>
       <c r="T26" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2842,7 +2842,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.702514956955</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2955,7 +2955,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2964,10 +2964,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>99.97427419833815</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2997,7 +2997,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3079,7 +3079,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3192,7 +3192,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>251.5502284016991</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,28 +3423,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428213</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,10 +3471,10 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S37" t="n">
-        <v>0.4774956074566125</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3492,7 +3492,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="38">
@@ -3517,7 +3517,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
         <v>283.1540821444137</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3675,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
         <v>140.2947128462239</v>
@@ -3708,13 +3708,13 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053464</v>
       </c>
       <c r="U40" t="n">
         <v>286.1844743892441</v>
@@ -3790,7 +3790,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3912,13 +3912,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>51.3656974031032</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3948,16 +3948,16 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>191.2560787872429</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -4140,16 +4140,16 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>137.3676443337302</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4185,16 +4185,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4327,31 +4327,31 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K2" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810564</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O2" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P2" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q2" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052369</v>
       </c>
       <c r="R2" t="n">
         <v>3325.605821609171</v>
@@ -4360,22 +4360,22 @@
         <v>3215.315153136266</v>
       </c>
       <c r="T2" t="n">
-        <v>3009.337405520488</v>
+        <v>3009.337405520489</v>
       </c>
       <c r="U2" t="n">
-        <v>2755.806928794324</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="V2" t="n">
-        <v>2424.744041450753</v>
+        <v>2755.806928794325</v>
       </c>
       <c r="W2" t="n">
-        <v>2071.975386180639</v>
+        <v>2403.038273524211</v>
       </c>
       <c r="X2" t="n">
-        <v>1698.509627919559</v>
+        <v>2029.572515263131</v>
       </c>
       <c r="Y2" t="n">
-        <v>1308.370295943747</v>
+        <v>1639.433183287319</v>
       </c>
     </row>
     <row r="3">
@@ -4385,28 +4385,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C3" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D3" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E3" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F3" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G3" t="n">
-        <v>176.0213023927779</v>
+        <v>176.0213023927786</v>
       </c>
       <c r="H3" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064629</v>
       </c>
       <c r="I3" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J3" t="n">
         <v>160.189385922801</v>
@@ -4430,7 +4430,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q3" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
         <v>2564.909189125857</v>
@@ -4439,16 +4439,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T3" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V3" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
         <v>1317.519490266131</v>
@@ -4464,28 +4464,28 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>848.0708164780106</v>
+        <v>680.3679798527295</v>
       </c>
       <c r="C4" t="n">
-        <v>679.1346335501037</v>
+        <v>511.4317969248226</v>
       </c>
       <c r="D4" t="n">
-        <v>529.0179941377679</v>
+        <v>361.3151575124869</v>
       </c>
       <c r="E4" t="n">
-        <v>381.1049005553748</v>
+        <v>213.4020639300938</v>
       </c>
       <c r="F4" t="n">
-        <v>234.2149530574645</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="G4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I4" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="J4" t="n">
         <v>111.634748879119</v>
@@ -4512,28 +4512,28 @@
         <v>1927.294548088493</v>
       </c>
       <c r="R4" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="S4" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="T4" t="n">
-        <v>1927.294548088493</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="U4" t="n">
-        <v>1767.918581386758</v>
+        <v>1854.900232967364</v>
       </c>
       <c r="V4" t="n">
-        <v>1767.918581386758</v>
+        <v>1600.215744761477</v>
       </c>
       <c r="W4" t="n">
-        <v>1478.501411349798</v>
+        <v>1310.798574724517</v>
       </c>
       <c r="X4" t="n">
-        <v>1250.51186045178</v>
+        <v>1082.809023826499</v>
       </c>
       <c r="Y4" t="n">
-        <v>1029.71928130825</v>
+        <v>862.0164446829692</v>
       </c>
     </row>
     <row r="5">
@@ -4564,13 +4564,13 @@
         <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J5" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810549</v>
+        <v>589.2106210810554</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
@@ -4579,40 +4579,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N5" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O5" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P5" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q5" t="n">
-        <v>3266.588755052366</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R5" t="n">
-        <v>3325.605821609169</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3215.315153136264</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3009.337405520486</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2755.806928794322</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2403.038273524208</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2403.038273524208</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y5" t="n">
-        <v>2403.038273524208</v>
+        <v>2403.03827352421</v>
       </c>
     </row>
     <row r="6">
@@ -4622,37 +4622,37 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>941.5438544811077</v>
+        <v>941.5438544811082</v>
       </c>
       <c r="C6" t="n">
-        <v>767.0908251999807</v>
+        <v>767.0908251999812</v>
       </c>
       <c r="D6" t="n">
-        <v>618.1564155387296</v>
+        <v>618.15641553873</v>
       </c>
       <c r="E6" t="n">
-        <v>458.918960533274</v>
+        <v>458.9189605332745</v>
       </c>
       <c r="F6" t="n">
-        <v>312.3844025601591</v>
+        <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927777</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
         <v>85.51940803064545</v>
       </c>
       <c r="I6" t="n">
-        <v>66.51211643218336</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J6" t="n">
         <v>160.1893859228007</v>
       </c>
       <c r="K6" t="n">
-        <v>398.4535849031477</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L6" t="n">
-        <v>765.1517452158129</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M6" t="n">
         <v>1212.428070438129</v>
@@ -4676,16 +4676,16 @@
         <v>2435.471302619336</v>
       </c>
       <c r="T6" t="n">
-        <v>2242.828302297191</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U6" t="n">
         <v>2014.760455431607</v>
       </c>
       <c r="V6" t="n">
-        <v>1779.608347199864</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W6" t="n">
-        <v>1525.370990471662</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X6" t="n">
         <v>1317.51949026613</v>
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>848.0708164780106</v>
+        <v>994.2880032601528</v>
       </c>
       <c r="C7" t="n">
-        <v>679.1346335501037</v>
+        <v>825.3518203322459</v>
       </c>
       <c r="D7" t="n">
-        <v>529.0179941377679</v>
+        <v>675.2351809199101</v>
       </c>
       <c r="E7" t="n">
-        <v>381.1049005553748</v>
+        <v>527.322087337517</v>
       </c>
       <c r="F7" t="n">
-        <v>234.2149530574644</v>
+        <v>380.4321398396066</v>
       </c>
       <c r="G7" t="n">
-        <v>66.51211643218338</v>
+        <v>212.7293032143256</v>
       </c>
       <c r="H7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
-        <v>66.51211643218338</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J7" t="n">
-        <v>111.6347488791189</v>
+        <v>111.634748879119</v>
       </c>
       <c r="K7" t="n">
-        <v>315.6219318279952</v>
+        <v>315.6219318279954</v>
       </c>
       <c r="L7" t="n">
-        <v>632.1817302764912</v>
+        <v>632.1817302764914</v>
       </c>
       <c r="M7" t="n">
-        <v>976.33877587604</v>
+        <v>976.3387758760405</v>
       </c>
       <c r="N7" t="n">
         <v>1317.747152581905</v>
       </c>
       <c r="O7" t="n">
-        <v>1617.076751502318</v>
+        <v>1617.076751502319</v>
       </c>
       <c r="P7" t="n">
-        <v>1849.684251935977</v>
+        <v>1849.684251935978</v>
       </c>
       <c r="Q7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="R7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="S7" t="n">
-        <v>1927.294548088492</v>
+        <v>1927.294548088493</v>
       </c>
       <c r="T7" t="n">
-        <v>1733.185899555685</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="U7" t="n">
-        <v>1733.185899555685</v>
+        <v>1879.403086337827</v>
       </c>
       <c r="V7" t="n">
-        <v>1478.501411349798</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="W7" t="n">
-        <v>1478.501411349798</v>
+        <v>1624.71859813194</v>
       </c>
       <c r="X7" t="n">
-        <v>1250.51186045178</v>
+        <v>1396.729047233923</v>
       </c>
       <c r="Y7" t="n">
-        <v>1029.71928130825</v>
+        <v>1175.936468090393</v>
       </c>
     </row>
     <row r="8">
@@ -4789,13 +4789,13 @@
         <v>953.6440892486869</v>
       </c>
       <c r="E8" t="n">
-        <v>567.8558366504426</v>
+        <v>953.6440892486869</v>
       </c>
       <c r="F8" t="n">
-        <v>156.869931860835</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>108.5090151927147</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
         <v>108.5090151927147</v>
@@ -4804,16 +4804,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912089</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N8" t="n">
         <v>2120.555556060171</v>
@@ -4859,64 +4859,64 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927779</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064547</v>
       </c>
       <c r="I9" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228005</v>
       </c>
       <c r="K9" t="n">
-        <v>398.4535849031475</v>
+        <v>398.4535849031476</v>
       </c>
       <c r="L9" t="n">
-        <v>765.151745215813</v>
+        <v>765.1517452158129</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
       </c>
       <c r="N9" t="n">
-        <v>1685.951113992583</v>
+        <v>1685.951113992584</v>
       </c>
       <c r="O9" t="n">
-        <v>2096.912393410638</v>
+        <v>2096.912393410639</v>
       </c>
       <c r="P9" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.411984886742</v>
       </c>
       <c r="Q9" t="n">
         <v>2565.053542533341</v>
       </c>
       <c r="R9" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125857</v>
       </c>
       <c r="S9" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619337</v>
       </c>
       <c r="T9" t="n">
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4925,10 +4925,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4962,16 +4962,16 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J10" t="n">
-        <v>111.634748879119</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K10" t="n">
-        <v>315.6219318279954</v>
+        <v>315.6219318279952</v>
       </c>
       <c r="L10" t="n">
         <v>632.1817302764914</v>
       </c>
       <c r="M10" t="n">
-        <v>976.3387758760405</v>
+        <v>976.3387758760404</v>
       </c>
       <c r="N10" t="n">
         <v>1317.747152581905</v>
@@ -4983,19 +4983,19 @@
         <v>1849.684251935978</v>
       </c>
       <c r="Q10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="R10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="S10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="T10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="U10" t="n">
-        <v>1927.294548088493</v>
+        <v>1927.294548088492</v>
       </c>
       <c r="V10" t="n">
         <v>1767.918581386758</v>
@@ -5032,19 +5032,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J11" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332388</v>
@@ -5056,22 +5056,22 @@
         <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398595</v>
       </c>
       <c r="S11" t="n">
         <v>4606.285157492578</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U11" t="n">
         <v>4151.812499466573</v>
@@ -5105,7 +5105,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5114,16 +5114,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I12" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273909</v>
       </c>
       <c r="J12" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K12" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L12" t="n">
         <v>1074.481071167373</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>653.7474797708871</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797191</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U13" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V13" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X13" t="n">
-        <v>1056.188523744657</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y13" t="n">
-        <v>835.3959446011269</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="14">
@@ -5257,70 +5257,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004714</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.75955840647</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168624</v>
       </c>
       <c r="G14" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I14" t="n">
         <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5342,7 +5342,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5351,16 +5351,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L15" t="n">
         <v>1074.481071167373</v>
@@ -5412,76 +5412,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>874.8686257536381</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>705.9324428257312</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F16" t="n">
         <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2269.002343845332</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>2049.400878868273</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.826443164475</v>
+        <v>1794.716390662386</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.409273127515</v>
+        <v>1505.299220625425</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.419722229497</v>
+        <v>1277.309669727408</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859674</v>
+        <v>1056.517090583878</v>
       </c>
     </row>
     <row r="17">
@@ -5494,7 +5494,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611464</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5503,22 +5503,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168616</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5527,34 +5527,34 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X17" t="n">
         <v>3094.515198591809</v>
@@ -5579,7 +5579,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5588,16 +5588,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K18" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L18" t="n">
         <v>1074.481071167373</v>
@@ -5649,76 +5649,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>951.777212765616</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C19" t="n">
-        <v>782.8410298377091</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D19" t="n">
-        <v>632.7243904253734</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2380.301669307225</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T19" t="n">
-        <v>2160.700204330166</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U19" t="n">
-        <v>1871.624977674364</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V19" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W19" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X19" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y19" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="20">
@@ -5740,43 +5740,43 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192602</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.852361107581</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5816,7 +5816,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5825,16 +5825,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J21" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K21" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L21" t="n">
         <v>1074.481071167373</v>
@@ -5886,76 +5886,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R22" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U22" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V22" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W22" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X22" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y22" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="23">
@@ -5965,34 +5965,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6001,16 +6001,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694708</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R23" t="n">
         <v>4690.833152398593</v>
@@ -6022,19 +6022,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6053,7 +6053,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6062,16 +6062,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
@@ -6123,76 +6123,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="26">
@@ -6223,19 +6223,19 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192596</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
         <v>2950.898526355937</v>
@@ -6302,13 +6302,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L27" t="n">
         <v>1074.481071167373</v>
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6384,52 +6384,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M28" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P28" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R28" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U28" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V28" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="29">
@@ -6454,31 +6454,31 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
@@ -6539,13 +6539,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L30" t="n">
         <v>1074.481071167373</v>
@@ -6597,22 +6597,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121643</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D31" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E31" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F31" t="n">
-        <v>194.8007783998286</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G31" t="n">
-        <v>93.81666304797187</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6621,52 +6621,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362683</v>
@@ -6697,25 +6697,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J32" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6733,19 +6733,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6776,13 +6776,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L33" t="n">
         <v>1074.481071167373</v>
@@ -6834,76 +6834,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>803.8641191832229</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C34" t="n">
-        <v>634.927936255316</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R34" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V34" t="n">
-        <v>1434.29471405501</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W34" t="n">
-        <v>1434.29471405501</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X34" t="n">
-        <v>1206.305163156993</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y34" t="n">
-        <v>985.5125840134626</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="35">
@@ -6925,34 +6925,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -7013,13 +7013,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L36" t="n">
         <v>1074.481071167373</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C37" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D37" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E37" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="F37" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="G37" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270447</v>
       </c>
       <c r="H37" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2379.435061037252</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T37" t="n">
-        <v>2159.833596060193</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U37" t="n">
-        <v>1870.758369404391</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V37" t="n">
-        <v>1616.073881198505</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W37" t="n">
-        <v>1326.656711161544</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X37" t="n">
-        <v>1098.667160263527</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y37" t="n">
-        <v>1098.667160263527</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="38">
@@ -7150,10 +7150,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C38" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D38" t="n">
         <v>1590.547811004712</v>
@@ -7162,34 +7162,34 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P38" t="n">
         <v>4194.413870694707</v>
@@ -7207,19 +7207,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U38" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y38" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="39">
@@ -7250,13 +7250,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J39" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K39" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L39" t="n">
         <v>1074.481071167373</v>
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400712</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121643</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G40" t="n">
         <v>235.5284942057738</v>
@@ -7332,52 +7332,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487567</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510508</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854706</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.701365648819</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611858</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138411</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703109</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="41">
@@ -7399,34 +7399,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H41" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192451</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111701</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075794</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7487,13 +7487,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273905</v>
       </c>
       <c r="J42" t="n">
-        <v>245.2306927803937</v>
+        <v>245.2306927803938</v>
       </c>
       <c r="K42" t="n">
-        <v>579.1554649516142</v>
+        <v>579.1554649516144</v>
       </c>
       <c r="L42" t="n">
         <v>1074.481071167373</v>
@@ -7545,76 +7545,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3556038098237</v>
+        <v>931.4710609784063</v>
       </c>
       <c r="C43" t="n">
-        <v>814.4194208819168</v>
+        <v>762.5348780504994</v>
       </c>
       <c r="D43" t="n">
-        <v>664.3027814695811</v>
+        <v>612.4182386381636</v>
       </c>
       <c r="E43" t="n">
-        <v>516.389687887188</v>
+        <v>464.5051450557705</v>
       </c>
       <c r="F43" t="n">
-        <v>369.4997403892776</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="S43" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>2157.887856924458</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="V43" t="n">
-        <v>1903.203368718571</v>
+        <v>1851.318825887154</v>
       </c>
       <c r="W43" t="n">
-        <v>1613.786198681611</v>
+        <v>1561.901655850193</v>
       </c>
       <c r="X43" t="n">
-        <v>1385.796647783593</v>
+        <v>1333.912104952176</v>
       </c>
       <c r="Y43" t="n">
-        <v>1165.004068640063</v>
+        <v>1113.119525808646</v>
       </c>
     </row>
     <row r="44">
@@ -7636,31 +7636,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O44" t="n">
         <v>3640.42229106801</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>988.1395539230172</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C46" t="n">
-        <v>819.2033709951103</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D46" t="n">
-        <v>669.0867315827745</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E46" t="n">
-        <v>521.1736380003814</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F46" t="n">
-        <v>374.283690502471</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G46" t="n">
         <v>235.5284942057738</v>
@@ -7833,25 +7833,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2197.062545487567</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V46" t="n">
-        <v>1907.987318831765</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W46" t="n">
-        <v>1618.570148794804</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X46" t="n">
-        <v>1390.580597896787</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y46" t="n">
-        <v>1169.788018753257</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
   </sheetData>
@@ -23436,7 +23436,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23472,7 +23472,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>57.22910392194188</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23481,7 +23481,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,19 +23700,19 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>4.845153664064782</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V16" t="n">
-        <v>145.6085800303781</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23895,16 +23895,16 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>138.4949402405072</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
@@ -23937,10 +23937,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>115.0314858713395</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23949,7 +23949,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>57.22910392194174</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24183,7 +24183,7 @@
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>0</v>
       </c>
       <c r="C25" t="n">
-        <v>0</v>
+        <v>138.4949402405073</v>
       </c>
       <c r="D25" t="n">
         <v>148.6154730182124</v>
@@ -24384,7 +24384,7 @@
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24411,7 +24411,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24615,13 +24615,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24843,7 +24843,7 @@
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24852,13 +24852,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>65.54986409393069</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25080,7 +25080,7 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5874149221289144</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,28 +25311,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>57.22910392194173</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>180.548790394188</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25380,7 +25380,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25563,13 +25563,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25602,7 +25602,7 @@
         <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>0</v>
+        <v>57.22910392194191</v>
       </c>
       <c r="U40" t="n">
         <v>0</v>
@@ -25800,7 +25800,7 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>114.1584408891656</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
         <v>0</v>
@@ -25833,19 +25833,19 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S43" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>60.88156453658513</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -26028,16 +26028,16 @@
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>28.15649395853862</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26073,16 +26073,16 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="6">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>737410.9310912271</v>
+        <v>737410.9310912272</v>
       </c>
     </row>
     <row r="10">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
     <row r="14">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>737410.9310912272</v>
+        <v>737410.9310912271</v>
       </c>
     </row>
   </sheetData>
@@ -26313,34 +26313,34 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>697885.5043846407</v>
+        <v>697885.5043846408</v>
       </c>
       <c r="C2" t="n">
-        <v>697885.5043846411</v>
+        <v>697885.504384641</v>
       </c>
       <c r="D2" t="n">
-        <v>697885.5043846408</v>
+        <v>697885.5043846406</v>
       </c>
       <c r="E2" t="n">
-        <v>686074.6097365055</v>
+        <v>686074.6097365059</v>
       </c>
       <c r="F2" t="n">
         <v>686074.6097365057</v>
       </c>
       <c r="G2" t="n">
-        <v>686074.6097365059</v>
+        <v>686074.6097365058</v>
       </c>
       <c r="H2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="I2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="J2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="K2" t="n">
-        <v>686074.6097365057</v>
+        <v>686074.6097365055</v>
       </c>
       <c r="L2" t="n">
         <v>686074.6097365055</v>
@@ -26349,10 +26349,10 @@
         <v>686074.6097365055</v>
       </c>
       <c r="N2" t="n">
+        <v>686074.6097365055</v>
+      </c>
+      <c r="O2" t="n">
         <v>686074.6097365057</v>
-      </c>
-      <c r="O2" t="n">
-        <v>686074.6097365055</v>
       </c>
       <c r="P2" t="n">
         <v>686074.6097365058</v>
@@ -26371,10 +26371,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>5.307101673679426e-10</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073552</v>
+        <v>325412.4618073557</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26395,10 +26395,10 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>1.150924617832061e-10</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551196</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>90964.01098815707</v>
+      </c>
+      <c r="C4" t="n">
         <v>90964.01098815713</v>
-      </c>
-      <c r="C4" t="n">
-        <v>90964.01098815721</v>
       </c>
       <c r="D4" t="n">
         <v>90964.01098815713</v>
       </c>
       <c r="E4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680575</v>
       </c>
       <c r="F4" t="n">
         <v>11776.97621680582</v>
@@ -26435,7 +26435,7 @@
         <v>11776.97621680582</v>
       </c>
       <c r="H4" t="n">
-        <v>11776.97621680582</v>
+        <v>11776.97621680578</v>
       </c>
       <c r="I4" t="n">
         <v>11776.97621680582</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-829757.1928925023</v>
+        <v>-829757.1928925021</v>
       </c>
       <c r="C6" t="n">
-        <v>498987.5528350911</v>
+        <v>498987.5528350906</v>
       </c>
       <c r="D6" t="n">
-        <v>498987.5528350899</v>
+        <v>498987.5528350904</v>
       </c>
       <c r="E6" t="n">
-        <v>247415.2626340805</v>
+        <v>247727.9039630016</v>
       </c>
       <c r="F6" t="n">
-        <v>572827.7244414358</v>
+        <v>573140.365770357</v>
       </c>
       <c r="G6" t="n">
-        <v>572827.724441436</v>
+        <v>573140.3657703572</v>
       </c>
       <c r="H6" t="n">
-        <v>572827.7244414358</v>
+        <v>573140.365770357</v>
       </c>
       <c r="I6" t="n">
-        <v>572827.7244414358</v>
+        <v>573140.365770357</v>
       </c>
       <c r="J6" t="n">
-        <v>355296.5220441583</v>
+        <v>355609.1633730794</v>
       </c>
       <c r="K6" t="n">
-        <v>572827.7244414359</v>
+        <v>573140.365770357</v>
       </c>
       <c r="L6" t="n">
-        <v>572827.7244414355</v>
+        <v>573140.365770357</v>
       </c>
       <c r="M6" t="n">
-        <v>487772.6965059238</v>
+        <v>488085.3378348448</v>
       </c>
       <c r="N6" t="n">
-        <v>572827.7244414358</v>
+        <v>573140.365770357</v>
       </c>
       <c r="O6" t="n">
-        <v>572827.7244414357</v>
+        <v>573140.3657703571</v>
       </c>
       <c r="P6" t="n">
-        <v>572827.7244414359</v>
+        <v>573140.3657703573</v>
       </c>
     </row>
   </sheetData>
@@ -26789,28 +26789,28 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>831.4014554022929</v>
+      </c>
+      <c r="C4" t="n">
         <v>831.4014554022926</v>
-      </c>
-      <c r="C4" t="n">
-        <v>831.4014554022922</v>
       </c>
       <c r="D4" t="n">
         <v>831.4014554022926</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
@@ -26965,10 +26965,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>278.1987997483754</v>
+        <v>278.1987997483759</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27041,10 +27041,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973562</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,7 +27378,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>377.9418368861307</v>
+        <v>50.18957841599479</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -27438,7 +27438,7 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
@@ -27551,7 +27551,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>166.0258082590282</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27584,7 +27584,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>88.93215267004733</v>
+        <v>17.26178070013006</v>
       </c>
       <c r="S4" t="n">
         <v>189.7690253314419</v>
@@ -27593,10 +27593,10 @@
         <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
-        <v>128.4296311708957</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>30.83395077441963</v>
+        <v>30.83395077441781</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27791,10 +27791,10 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983812</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,13 +27821,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>88.93215267004737</v>
+        <v>88.93215267004733</v>
       </c>
       <c r="S7" t="n">
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>27.38138722869013</v>
+        <v>172.1364021430099</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27861,16 +27861,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>275.7218124670728</v>
       </c>
       <c r="G8" t="n">
-        <v>363.0444181520143</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>294.6077643873205</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
@@ -28031,7 +28031,7 @@
         <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
-        <v>96.35242040983809</v>
+        <v>96.35242040983812</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28058,7 +28058,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>88.93215267004733</v>
+        <v>88.93215267004734</v>
       </c>
       <c r="S10" t="n">
         <v>189.7690253314419</v>
@@ -28070,7 +28070,7 @@
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>94.3554362891108</v>
+        <v>94.35543628911122</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
@@ -28851,7 +28851,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>-9.094947017729282e-13</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H5" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I5" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J5" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K5" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L5" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M5" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N5" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O5" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P5" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q5" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R5" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S5" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T5" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,46 +31357,46 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H6" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I6" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J6" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K6" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L6" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M6" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N6" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O6" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P6" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q6" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R6" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S6" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T6" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U6" t="n">
         <v>0.1542136840462215</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H7" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I7" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J7" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K7" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L7" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M7" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N7" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P7" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q7" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R7" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S7" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T7" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U7" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,43 +31515,43 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H8" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I8" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J8" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K8" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L8" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M8" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N8" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O8" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P8" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q8" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R8" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S8" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T8" t="n">
         <v>19.1778794245112</v>
@@ -31600,40 +31600,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I9" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J9" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K9" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L9" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M9" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N9" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O9" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P9" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S9" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T9" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U9" t="n">
         <v>0.1542136840462215</v>
@@ -31673,13 +31673,13 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H10" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I10" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J10" t="n">
         <v>138.937596729739</v>
@@ -31688,16 +31688,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L10" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M10" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N10" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O10" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P10" t="n">
         <v>237.6785118802169</v>
@@ -31706,16 +31706,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R10" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S10" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T10" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U10" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H12" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I12" t="n">
         <v>101.3076196007749</v>
@@ -31843,16 +31843,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O12" t="n">
         <v>398.7616643558013</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -32001,31 +32001,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32068,10 +32068,10 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H15" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
         <v>101.3076196007749</v>
@@ -32080,16 +32080,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
         <v>398.7616643558013</v>
@@ -32104,13 +32104,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32150,25 +32150,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32177,19 +32177,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32226,7 +32226,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32238,31 +32238,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043729</v>
       </c>
       <c r="S17" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32305,10 +32305,10 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H18" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I18" t="n">
         <v>101.3076196007749</v>
@@ -32317,16 +32317,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O18" t="n">
         <v>398.7616643558013</v>
@@ -32341,13 +32341,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32387,25 +32387,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32414,19 +32414,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32463,7 +32463,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32475,31 +32475,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L20" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S20" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32542,10 +32542,10 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H21" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I21" t="n">
         <v>101.3076196007749</v>
@@ -32554,16 +32554,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L21" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O21" t="n">
         <v>398.7616643558013</v>
@@ -32578,13 +32578,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32624,25 +32624,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32651,19 +32651,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32700,7 +32700,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32712,31 +32712,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162566</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32779,10 +32779,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32791,16 +32791,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O24" t="n">
         <v>398.7616643558013</v>
@@ -32815,13 +32815,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32861,25 +32861,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32888,19 +32888,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32937,7 +32937,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32949,31 +32949,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L26" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S26" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33016,10 +33016,10 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H27" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I27" t="n">
         <v>101.3076196007749</v>
@@ -33028,16 +33028,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O27" t="n">
         <v>398.7616643558013</v>
@@ -33052,13 +33052,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33098,25 +33098,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33125,19 +33125,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33174,7 +33174,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33186,31 +33186,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L29" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S29" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33253,10 +33253,10 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H30" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I30" t="n">
         <v>101.3076196007749</v>
@@ -33265,16 +33265,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O30" t="n">
         <v>398.7616643558013</v>
@@ -33289,13 +33289,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33335,25 +33335,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33362,19 +33362,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33411,43 +33411,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I32" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J32" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L32" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S32" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33490,10 +33490,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H33" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33502,16 +33502,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O33" t="n">
         <v>398.7616643558013</v>
@@ -33526,13 +33526,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33572,25 +33572,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33599,19 +33599,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33648,43 +33648,43 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L35" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S35" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33727,10 +33727,10 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H36" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I36" t="n">
         <v>101.3076196007749</v>
@@ -33739,16 +33739,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O36" t="n">
         <v>398.7616643558013</v>
@@ -33763,13 +33763,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33809,25 +33809,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33836,19 +33836,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33885,43 +33885,43 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L38" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R38" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S38" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33964,10 +33964,10 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H39" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I39" t="n">
         <v>101.3076196007749</v>
@@ -33976,16 +33976,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O39" t="n">
         <v>398.7616643558013</v>
@@ -34000,13 +34000,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34046,25 +34046,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34073,19 +34073,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34122,43 +34122,43 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067217</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L41" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S41" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34201,10 +34201,10 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H42" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
@@ -34213,16 +34213,16 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>475.1391886422585</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O42" t="n">
         <v>398.7616643558013</v>
@@ -34237,13 +34237,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34283,25 +34283,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34310,19 +34310,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34377,7 +34377,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
         <v>981.2715114159425</v>
@@ -34935,31 +34935,31 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K5" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L5" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M5" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N5" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O5" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P5" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q5" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R5" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>94.62350453597702</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K6" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L6" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M6" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N6" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O6" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P6" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q6" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>45.57841661306617</v>
+        <v>45.57841661306622</v>
       </c>
       <c r="K7" t="n">
-        <v>206.0476595443195</v>
+        <v>206.0476595443196</v>
       </c>
       <c r="L7" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M7" t="n">
-        <v>347.6333793934837</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N7" t="n">
-        <v>344.8569461675399</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O7" t="n">
-        <v>302.3531302226397</v>
+        <v>302.3531302226398</v>
       </c>
       <c r="P7" t="n">
-        <v>234.9570711451103</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q7" t="n">
-        <v>78.39423853789357</v>
+        <v>78.39423853789366</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35172,31 +35172,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K8" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L8" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M8" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N8" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O8" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P8" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q8" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R8" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K9" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L9" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M9" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N9" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O9" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P9" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35330,10 +35330,10 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>45.57841661306622</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K10" t="n">
-        <v>206.0476595443196</v>
+        <v>206.0476595443195</v>
       </c>
       <c r="L10" t="n">
         <v>319.7573721701981</v>
@@ -35345,13 +35345,13 @@
         <v>344.8569461675401</v>
       </c>
       <c r="O10" t="n">
-        <v>302.3531302226398</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P10" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q10" t="n">
-        <v>78.39423853789366</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35485,7 +35485,7 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J12" t="n">
         <v>151.1582247754088</v>
@@ -35494,13 +35494,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O12" t="n">
         <v>256.1654199113569</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35643,34 +35643,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35731,13 +35731,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
         <v>256.1654199113569</v>
@@ -35804,22 +35804,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L17" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902408</v>
@@ -35959,7 +35959,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
@@ -35968,13 +35968,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O18" t="n">
         <v>256.1654199113569</v>
@@ -36041,22 +36041,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K19" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36117,34 +36117,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M20" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O20" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683816</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36205,13 +36205,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O21" t="n">
         <v>256.1654199113569</v>
@@ -36278,22 +36278,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K22" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36354,34 +36354,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462693</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902399</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36442,13 +36442,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O24" t="n">
         <v>256.1654199113569</v>
@@ -36515,22 +36515,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36591,34 +36591,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L26" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M26" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O26" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36679,13 +36679,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O27" t="n">
         <v>256.1654199113569</v>
@@ -36752,22 +36752,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K28" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36828,34 +36828,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L29" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M29" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O29" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36916,13 +36916,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O30" t="n">
         <v>256.1654199113569</v>
@@ -36989,22 +36989,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K31" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37065,34 +37065,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L32" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M32" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O32" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37153,13 +37153,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O33" t="n">
         <v>256.1654199113569</v>
@@ -37226,22 +37226,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K34" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37302,34 +37302,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L35" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O35" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37390,13 +37390,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O36" t="n">
         <v>256.1654199113569</v>
@@ -37463,22 +37463,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K37" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37539,34 +37539,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L38" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M38" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O38" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37627,13 +37627,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O39" t="n">
         <v>256.1654199113569</v>
@@ -37700,22 +37700,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K40" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37776,34 +37776,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317256</v>
+        <v>1.5396902363158</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L41" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M41" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193516</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O41" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774915</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37864,13 +37864,13 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O42" t="n">
         <v>256.1654199113569</v>
@@ -37937,22 +37937,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K43" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38025,7 +38025,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
